--- a/obj/results/article/mul_01_10/mul_01_10_deformation_report.xlsx
+++ b/obj/results/article/mul_01_10/mul_01_10_deformation_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\PolypointTransformationsHelpers\obj\results\article\mul_01_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0C8F6D-EDAB-441E-927F-7714D100BDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33ED79B-AA40-4409-BFA8-0792C4A0945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="852" windowWidth="23040" windowHeight="14088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mul 01 10 deformation report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Params</t>
   </si>
@@ -35,36 +35,6 @@
   </si>
   <si>
     <t>RMSE rbf_cube_2</t>
-  </si>
-  <si>
-    <t>mul_0.1</t>
-  </si>
-  <si>
-    <t>mul_0.2</t>
-  </si>
-  <si>
-    <t>mul_0.3</t>
-  </si>
-  <si>
-    <t>mul_0.4</t>
-  </si>
-  <si>
-    <t>mul_0.5</t>
-  </si>
-  <si>
-    <t>mul_0.6</t>
-  </si>
-  <si>
-    <t>mul_0.7</t>
-  </si>
-  <si>
-    <t>mul_0.8</t>
-  </si>
-  <si>
-    <t>mul_0.9</t>
-  </si>
-  <si>
-    <t>mul_1.0</t>
   </si>
   <si>
     <t>TIME pp_sidor_cube_2</t>
@@ -234,42 +204,43 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'mul 01 10 deformation report'!$A$14:$A$23</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>mul_0.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mul_0.2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mul_0.3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mul_0.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mul_0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mul_0.6</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mul_0.7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mul_0.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>mul_0.9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>mul_1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -344,42 +315,43 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'mul 01 10 deformation report'!$A$14:$A$23</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>mul_0.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mul_0.2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mul_0.3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mul_0.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mul_0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mul_0.6</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mul_0.7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mul_0.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>mul_0.9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>mul_1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -454,42 +426,43 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'mul 01 10 deformation report'!$A$14:$A$23</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>mul_0.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mul_0.2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mul_0.3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mul_0.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mul_0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mul_0.6</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mul_0.7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mul_0.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>mul_0.9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>mul_1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -564,42 +537,43 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'mul 01 10 deformation report'!$A$14:$A$23</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>mul_0.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mul_0.2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mul_0.3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mul_0.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mul_0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mul_0.6</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mul_0.7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mul_0.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>mul_0.9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>mul_1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -666,7 +640,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -963,42 +937,43 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'mul 01 10 deformation report'!$A$2:$A$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>mul_0.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mul_0.2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mul_0.3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mul_0.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mul_0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mul_0.6</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mul_0.7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mul_0.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>mul_0.9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>mul_1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1085,42 +1060,43 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'mul 01 10 deformation report'!$A$2:$A$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>mul_0.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mul_0.2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mul_0.3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mul_0.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mul_0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mul_0.6</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mul_0.7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mul_0.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>mul_0.9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>mul_1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1207,42 +1183,43 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'mul 01 10 deformation report'!$A$2:$A$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>mul_0.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mul_0.2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mul_0.3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mul_0.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mul_0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mul_0.6</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mul_0.7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mul_0.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>mul_0.9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>mul_1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1329,42 +1306,43 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'mul 01 10 deformation report'!$A$2:$A$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>mul_0.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mul_0.2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mul_0.3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mul_0.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>mul_0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mul_0.6</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>mul_0.7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>mul_0.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>mul_0.9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>mul_1.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1432,7 +1410,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3079,7 +3057,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="A14" sqref="A14:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3109,8 +3087,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="1">
+        <v>0.1</v>
       </c>
       <c r="B2" s="1">
         <v>0.01</v>
@@ -3126,8 +3104,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="1">
+        <v>0.2</v>
       </c>
       <c r="B3" s="1">
         <v>0.01</v>
@@ -3143,8 +3121,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4" s="1">
+        <v>0.3</v>
       </c>
       <c r="B4" s="1">
         <v>0.02</v>
@@ -3160,8 +3138,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="1">
+        <v>0.4</v>
       </c>
       <c r="B5" s="1">
         <v>0.02</v>
@@ -3177,8 +3155,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="1">
+        <v>0.5</v>
       </c>
       <c r="B6" s="1">
         <v>0.03</v>
@@ -3194,8 +3172,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
+      <c r="A7" s="1">
+        <v>0.6</v>
       </c>
       <c r="B7" s="1">
         <v>0.03</v>
@@ -3211,8 +3189,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8" s="1">
+        <v>0.7</v>
       </c>
       <c r="B8" s="1">
         <v>0.04</v>
@@ -3228,8 +3206,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
+      <c r="A9" s="1">
+        <v>0.8</v>
       </c>
       <c r="B9" s="1">
         <v>0.04</v>
@@ -3245,8 +3223,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
+      <c r="A10" s="1">
+        <v>0.9</v>
       </c>
       <c r="B10" s="1">
         <v>0.05</v>
@@ -3262,8 +3240,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
+      <c r="A11" s="1">
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>0.05</v>
@@ -3283,21 +3261,21 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
+      <c r="A14" s="1">
+        <v>0.1</v>
       </c>
       <c r="B14" s="1">
         <v>5.28</v>
@@ -3313,8 +3291,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>6</v>
+      <c r="A15" s="1">
+        <v>0.2</v>
       </c>
       <c r="B15" s="1">
         <v>5.42</v>
@@ -3330,8 +3308,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
+      <c r="A16" s="1">
+        <v>0.3</v>
       </c>
       <c r="B16" s="1">
         <v>5.35</v>
@@ -3347,8 +3325,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
+      <c r="A17" s="1">
+        <v>0.4</v>
       </c>
       <c r="B17" s="1">
         <v>5.33</v>
@@ -3364,8 +3342,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
+      <c r="A18" s="1">
+        <v>0.5</v>
       </c>
       <c r="B18" s="1">
         <v>5.35</v>
@@ -3381,8 +3359,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>10</v>
+      <c r="A19" s="1">
+        <v>0.6</v>
       </c>
       <c r="B19" s="1">
         <v>5.18</v>
@@ -3398,8 +3376,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
+      <c r="A20" s="1">
+        <v>0.7</v>
       </c>
       <c r="B20" s="1">
         <v>5.39</v>
@@ -3415,8 +3393,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>12</v>
+      <c r="A21" s="1">
+        <v>0.8</v>
       </c>
       <c r="B21" s="1">
         <v>5.34</v>
@@ -3432,8 +3410,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>13</v>
+      <c r="A22" s="1">
+        <v>0.9</v>
       </c>
       <c r="B22" s="1">
         <v>5.28</v>
@@ -3449,8 +3427,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>14</v>
+      <c r="A23" s="1">
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>5.38</v>
